--- a/agent/knowledge-base-assets/External-Insurance-FAQs.xlsx
+++ b/agent/knowledge-base-assets/External-Insurance-FAQs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kbuilder/Documents/GenAI/bedrock/amazon-bedrock-samples/agents/insurance-solution/agent/knowledge-base-assets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jongho/Documents/02. Customer Facing/03. AWS Services/GenAI/Demo/기초정보/8. claim agent/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{370CA990-067C-9C48-84F7-81DB66554A94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98756CA6-1882-EA4D-85B0-76CACB62559D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="640" windowWidth="35840" windowHeight="17600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Insurance-FAQs" sheetId="1" r:id="rId1"/>
@@ -22,70 +22,70 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
-    <t>_question</t>
-  </si>
-  <si>
-    <t>_answer</t>
-  </si>
-  <si>
-    <t>_source_uri</t>
-  </si>
-  <si>
-    <t>What factors determine my car insurance premium?</t>
-  </si>
-  <si>
-    <t>Your premium is influenced by various factors including your driving record, age, location, type of vehicle, coverage options, and more. To determine your premium, we can create a personalized quote for you.</t>
+    <t>자주 묻는 질문</t>
+  </si>
+  <si>
+    <t>_질문</t>
+  </si>
+  <si>
+    <t>_답변</t>
+  </si>
+  <si>
+    <t>_소스_uri</t>
+  </si>
+  <si>
+    <t>자동차 보험료를 결정하는 요인은 무엇인가요?</t>
+  </si>
+  <si>
+    <t>보험료는 운전 기록, 연령, 위치, 차량 유형, 보장 옵션 등 다양한 요인의 영향을 받습니다. 보험료를 결정하기 위해 맞춤형 견적을 만들어 드릴 수 있습니다.</t>
   </si>
   <si>
     <t>https://www.anycompany.com/premuims</t>
   </si>
   <si>
-    <t>What types of coverage do you offer?</t>
-  </si>
-  <si>
-    <t>We offer a range of coverage options, including liability, collision, comprehensive, uninsured/underinsured motorist, and medical payments.</t>
+    <t>어떤 유형의 보험을 제공하나요?</t>
+  </si>
+  <si>
+    <t>당사는 책임, 충돌, 종합 보험, 보험에 가입하지 않았거나 보험이 부족한 운전자, 의료비 지급 등 다양한 보장 옵션을 제공합니다.</t>
   </si>
   <si>
     <t>https://www.anycompany.com/coverage</t>
   </si>
   <si>
-    <t>How can I lower my car insurance rates?</t>
-  </si>
-  <si>
-    <t>There are several ways to potentially reduce your rates, including maintaining a good driving record, taking defensive driving courses, bundling policies, and qualifying for discounts. You can speak to an agent about your specific rates.</t>
+    <t>자동차 보험료를 낮추려면 어떻게 해야 하나요?</t>
+  </si>
+  <si>
+    <t>운전 기록을 잘 유지하고, 방어적인 운전 코스를 수강하고, 번들링 정책을 적용하고, 할인을 받는 등 여러 가지 방법으로 요금을 낮출 수 있습니다. 구체적인 요금에 대해서는 상담원에게 문의할 수 있습니다.</t>
   </si>
   <si>
     <t>https://www.anycompany.com/rates</t>
   </si>
   <si>
-    <t>Can I add a new driver to my policy?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes, you can add new drivers to your policy. The premium might change based on the new driver's age, driving history, and other factors. </t>
-  </si>
-  <si>
     <t>https://www.anycompany.com/policy</t>
   </si>
   <si>
-    <t>What should I do after an accident?</t>
-  </si>
-  <si>
-    <t>First, ensure everyone's safety, then exchange information with other parties involved. Take photos if possible and file a police report. Contact us immediately to report the incident and start your claim process.</t>
+    <t>사고 후에는 어떻게 해야 하나요?</t>
+  </si>
+  <si>
+    <t>먼저 모든 사람의 안전을 확인한 다음 관련된 다른 당사자와 정보를 교환하세요. 가능하면 사진을 찍고 경찰에 신고하세요. 즉시 당사에 연락하여 사고를 신고하고 청구 절차를 시작하십시오.</t>
   </si>
   <si>
     <t>https://www.anycompany.com/claims</t>
   </si>
   <si>
-    <t>What is a deductible and how does it work?</t>
+    <t>공제액이란 무엇이며 어떻게 적용되나요?</t>
+  </si>
+  <si>
+    <t>공제액은 보험이 적용되기 전에 지불해야 하는 금액입니다. 예를 들어, 공제액이 500 달러이고 수리비가 2000 USD인 경우 500을 지불하고 나머지 1,500을 보험에서 부담합니다.</t>
   </si>
   <si>
     <t>https://www.anycompany.com/deductibles</t>
   </si>
   <si>
-    <t>Frequently Asked Questions</t>
-  </si>
-  <si>
-    <t>A deductible is the amount you're responsible for paying before your insurance coverage applies. For instance, if your deductible is 500 USD and the repair costs are 2000 USD, you pay 500, and your insurance covers the remaining 1500.</t>
+    <t>예. 보험계약에 새 드라이버를 추가할 수 있습니다. 보험료는 신규 운전자의 연령, 운전 기록 및 기타 요인에 따라 달라질 수 있습니다.</t>
+  </si>
+  <si>
+    <t>보험계약에 새 드라이버를 추가할 수 있나요?</t>
   </si>
 </sst>
 </file>
@@ -929,7 +929,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -941,81 +941,81 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
         <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
         <v>15</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>16</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
         <v>18</v>
-      </c>
-      <c r="B8" t="s">
-        <v>21</v>
       </c>
       <c r="C8" t="s">
         <v>19</v>
